--- a/System planing/Deadline.xlsx
+++ b/System planing/Deadline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20100\Desktop\graduation project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20100\Desktop\graduation project\System planing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472722D-9057-482C-BBC2-96151FBD7591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7578187-8146-4F86-9E9C-CEA32A98A872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C415B7F8-63A8-45E1-9A4D-9F8CA1821213}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>TASK NAME</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>25/4/2023</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -573,7 +576,7 @@
         <v>45110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -583,6 +586,9 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -591,6 +597,9 @@
       <c r="D5" s="2">
         <v>45020</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -613,6 +622,9 @@
       <c r="D9" s="2">
         <v>45020</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -627,13 +639,19 @@
       <c r="D16" s="2">
         <v>45234</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
